--- a/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -714,32 +714,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -749,27 +749,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-8.8</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -779,32 +779,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -879,27 +879,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -1169,32 +1169,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1204,27 +1204,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-10.4</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -1234,32 +1234,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1269,27 +1269,27 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>16.3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1334,27 +1334,27 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.3</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -1364,32 +1364,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -1429,32 +1429,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1464,27 +1464,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1819,32 +1819,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -1949,32 +1949,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -2014,32 +2014,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-7.9</t>
         </is>
       </c>
     </row>
@@ -2079,32 +2079,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2124,17 +2124,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-7.9</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2314,22 +2314,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -2339,17 +2339,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-3.7</t>
         </is>
       </c>
     </row>
@@ -2404,32 +2404,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2439,27 +2439,27 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -2469,32 +2469,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2554,12 +2554,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -2599,17 +2599,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>-3.7</t>
         </is>
       </c>
     </row>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -3379,32 +3379,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -3574,17 +3574,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -3639,17 +3639,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3689,12 +3689,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -3964,32 +3964,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -4029,32 +4029,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4064,27 +4064,27 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -4094,32 +4094,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4129,27 +4129,27 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -4224,32 +4224,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-8.7</t>
         </is>
       </c>
     </row>
@@ -4484,32 +4484,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -4549,32 +4549,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4584,27 +4584,27 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -4614,32 +4614,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -4679,32 +4679,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-6.6</t>
+          <t>-5.8</t>
         </is>
       </c>
     </row>
@@ -4744,32 +4744,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -4809,32 +4809,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4844,27 +4844,27 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -4894,12 +4894,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5054,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -5329,32 +5329,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -5394,32 +5394,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -5459,32 +5459,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5494,27 +5494,27 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -5524,32 +5524,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -5589,17 +5589,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5624,27 +5624,27 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5674,12 +5674,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5689,27 +5689,27 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -5719,17 +5719,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5739,12 +5739,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5754,27 +5754,27 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,12 +5869,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5884,27 +5884,27 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6094,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -6109,32 +6109,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -6239,32 +6239,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -6874,12 +6874,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -7019,32 +7019,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Troy Brown Jr.</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7054,27 +7054,27 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -7084,32 +7084,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -7149,22 +7149,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7199,12 +7199,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -7214,32 +7214,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -7249,27 +7249,27 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -7344,32 +7344,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -7379,27 +7379,27 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7419,22 +7419,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
@@ -7474,17 +7474,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7494,12 +7494,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -7509,27 +7509,27 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -7539,32 +7539,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -7574,27 +7574,27 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>20.6</t>
         </is>
       </c>
     </row>
@@ -7604,32 +7604,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>19.8</t>
         </is>
       </c>
     </row>
@@ -7669,32 +7669,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>-16.9</t>
         </is>
       </c>
     </row>
@@ -7734,32 +7734,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -7994,32 +7994,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -8059,32 +8059,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -8094,27 +8094,27 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -8124,32 +8124,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8159,27 +8159,27 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -8189,32 +8189,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -8224,27 +8224,27 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -8709,17 +8709,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8729,12 +8729,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8794,12 +8794,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -8904,32 +8904,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -8939,27 +8939,27 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -8969,32 +8969,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -9034,32 +9034,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -9069,27 +9069,27 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -9099,32 +9099,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -9134,27 +9134,27 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -9229,32 +9229,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -9294,32 +9294,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -9329,27 +9329,27 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-18.7</t>
         </is>
       </c>
     </row>
@@ -9359,12 +9359,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-18.7</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -9424,17 +9424,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9444,12 +9444,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -9459,27 +9459,27 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -9554,32 +9554,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -9589,27 +9589,27 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -9654,27 +9654,27 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
@@ -9684,32 +9684,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>32.2</t>
         </is>
       </c>
     </row>
@@ -9749,17 +9749,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -9814,17 +9814,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -9834,12 +9834,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -9849,27 +9849,27 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -9879,32 +9879,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -9914,27 +9914,27 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-14.4</t>
         </is>
       </c>
     </row>
@@ -9944,32 +9944,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -9979,27 +9979,27 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>19.7</t>
         </is>
       </c>
     </row>
@@ -10009,17 +10009,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10029,12 +10029,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>65.5</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>10.1</t>
         </is>
       </c>
     </row>
@@ -10074,17 +10074,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10094,12 +10094,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -10204,32 +10204,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -10239,27 +10239,27 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -10304,27 +10304,27 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,12 +10354,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -10399,32 +10399,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10434,27 +10434,27 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -10659,32 +10659,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>-35.1</t>
         </is>
       </c>
     </row>
@@ -10789,32 +10789,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-35.1</t>
+          <t>27.9</t>
         </is>
       </c>
     </row>
@@ -10984,22 +10984,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-12.9</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -11049,22 +11049,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-12.9</t>
         </is>
       </c>
     </row>
@@ -11114,17 +11114,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11134,12 +11134,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>-21.0</t>
         </is>
       </c>
     </row>
@@ -11179,17 +11179,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -11199,12 +11199,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>16.1</t>
         </is>
       </c>
     </row>
@@ -11309,32 +11309,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11344,27 +11344,27 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
@@ -11374,32 +11374,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -11504,32 +11504,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>16.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -11569,32 +11569,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>16.3</t>
         </is>
       </c>
     </row>
@@ -11634,32 +11634,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Omer Yurtseven</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -11699,32 +11699,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Omer Yurtseven</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>17.3</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Willy Hernangomez</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>61.8</t>
         </is>
       </c>
     </row>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>58.1</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12579,27 +12579,27 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12629,12 +12629,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-12.2</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -12674,22 +12674,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Willy Hernangomez</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>54.8</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Eric Paschall</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -12869,17 +12869,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Eric Paschall</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -12889,12 +12889,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -12904,27 +12904,27 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -13129,17 +13129,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Armoni Brooks</t>
+          <t>Luca Vildoza</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13149,12 +13149,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -13259,17 +13259,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13279,12 +13279,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -13324,17 +13324,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Luca Vildoza</t>
+          <t>Armoni Brooks</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13344,12 +13344,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-35.6</t>
+          <t>-17.2</t>
         </is>
       </c>
     </row>
@@ -13389,17 +13389,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13409,12 +13409,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>20.6</t>
         </is>
       </c>
     </row>
@@ -13454,22 +13454,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-19.2</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -13519,22 +13519,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>-19.2</t>
         </is>
       </c>
     </row>
@@ -13649,32 +13649,32 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -13684,27 +13684,27 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>-27.2</t>
         </is>
       </c>
     </row>
@@ -13714,17 +13714,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Ish Wainright</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13734,12 +13734,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -13749,27 +13749,27 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -13779,32 +13779,32 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Nik Stauskas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -13814,7 +13814,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-49.8</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -13844,17 +13844,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ish Wainright</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13889,17 +13889,17 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>54.0</t>
         </is>
       </c>
     </row>
@@ -13909,32 +13909,32 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -13954,17 +13954,17 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -13974,22 +13974,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -14024,12 +14024,12 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-39.7</t>
+          <t>-41.2</t>
         </is>
       </c>
     </row>
@@ -14039,32 +14039,32 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>-49.8</t>
         </is>
       </c>
     </row>
@@ -14104,17 +14104,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Facundo Campazzo</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -14124,12 +14124,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14149,17 +14149,17 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>-39.7</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -14234,12 +14234,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14249,17 +14249,17 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -14279,17 +14279,17 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-41.4</t>
+          <t>53.9</t>
         </is>
       </c>
     </row>
@@ -14299,17 +14299,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nik Stauskas</t>
+          <t>Facundo Campazzo</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -14319,12 +14319,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14344,17 +14344,17 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
